--- a/Idiom_analysis/ground_truth_RQ2.xlsx
+++ b/Idiom_analysis/ground_truth_RQ2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangyanming/Desktop/tempIdioMine/idioMine/Idiom_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A1B9D61-0933-8449-AA76-932C9F3BF540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55F1A6C-2BEA-9148-9355-CE9F31035C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2320" yWindow="2080" windowWidth="27820" windowHeight="16940" xr2:uid="{1964F265-F431-7E43-B2F0-12A44C3EB41D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACB6724-5282-8B46-BE93-A021FD3FC87E}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
